--- a/utility/sqlResult.xlsx
+++ b/utility/sqlResult.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>title</t>
   </si>
@@ -528,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,313 +556,280 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
         <v>1614400425</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
         <v>1614316267</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>1613886608</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>1613795713</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>1613468188</v>
       </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
         <v>1612869431</v>
       </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
         <v>1553474093</v>
       </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
         <v>1587662622</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
         <v>1587759590</v>
       </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
         <v>1553474721</v>
       </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
